--- a/Categories.xlsx
+++ b/Categories.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Электроника</t>
   </si>
@@ -23,6 +23,9 @@
     <t>Смартфоны</t>
   </si>
   <si>
+    <t>Чайники</t>
+  </si>
+  <si>
     <t>Мебель</t>
   </si>
   <si>
@@ -30,6 +33,9 @@
   </si>
   <si>
     <t>Двуспальные диваны</t>
+  </si>
+  <si>
+    <t>Himola</t>
   </si>
 </sst>
 </file>
@@ -74,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -96,18 +102,28 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
